--- a/年度工作汇总/2014/清华大学2014年度工作考核表_工作量统计_王德宇.xlsx
+++ b/年度工作汇总/2014/清华大学2014年度工作考核表_工作量统计_王德宇.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Woody\Git Projects\workzone\年度工作汇总\2014\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
   <si>
     <t>天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,18 +290,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -305,7 +310,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -313,7 +318,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -334,7 +339,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -343,7 +348,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -416,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,31 +437,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,52 +742,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G57"/>
+  <dimension ref="B1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:13">
+      <c r="B1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G1">
-        <f>G3+G11+G19+G26+G31+G42+G49+G55</f>
-        <v>1573.5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="7" t="s">
+        <f>G3+G11+G19+G27+G32+G43+G50+G56</f>
+        <v>1727.5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:13">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -787,8 +795,19 @@
         <f>SUM(G5:G9)</f>
         <v>498</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <f>SUM(M5:M9)</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -807,8 +826,20 @@
       <c r="G4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -822,8 +853,21 @@
         <f>C5*F5</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <f>K5*L5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -837,16 +881,35 @@
         <f>C6*F6</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <f>K6*L6</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="G7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -860,8 +923,21 @@
         <f>C8*F8</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <f>K8*L8</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -875,14 +951,27 @@
         <f>C9*F9</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <f>K9*L9</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" t="s">
         <v>17</v>
       </c>
@@ -890,8 +979,19 @@
         <f>SUM(G13:G17)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="J11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M13:M17)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -910,8 +1010,20 @@
       <c r="G12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -925,8 +1037,21 @@
         <f>C13*F13</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <f>K13*L13</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -940,8 +1065,21 @@
         <f t="shared" ref="G14:G17" si="0">C14*F14</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>40</v>
+      </c>
+      <c r="M14">
+        <f>K14*L14</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -955,8 +1093,21 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>40</v>
+      </c>
+      <c r="M15">
+        <f>K15*L15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -970,8 +1121,21 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>40</v>
+      </c>
+      <c r="M16">
+        <f>K16*L16</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -985,8 +1149,21 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <f>K17*L17</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
@@ -994,11 +1171,21 @@
         <v>17</v>
       </c>
       <c r="G19">
-        <f>SUM(G21:G23)</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="17">
+        <f>SUM(G21:G25)</f>
+        <v>260</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <f>SUM(N21:N24)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="14.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1204,23 @@
       <c r="G20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" t="s">
         <v>37</v>
       </c>
@@ -1032,479 +1234,892 @@
         <f>C21*F21</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <f>K21*M21</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>8</v>
       </c>
       <c r="G22" s="3">
         <f>D22*F22</f>
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
+        <f>L22*M22</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <f>D23*F23</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
+        <f>L23*M23</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <f>D23*F23</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
       <c r="D24">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>8</v>
       </c>
       <c r="G24">
         <f>D24*F24</f>
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <f>L24*M24</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f>D25*F25</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="6" t="s">
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25">
+        <v>1.5</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <f>L25*M25</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="G26">
-        <f>SUM(G28:G29)</f>
+      <c r="G27">
+        <f>SUM(G29:G30)</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" t="s">
+      <c r="J27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27">
+        <f>SUM(N29:N30)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" t="s">
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>4</v>
-      </c>
-      <c r="F28">
-        <v>20</v>
-      </c>
-      <c r="G28">
-        <f>D28*F28</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
       </c>
       <c r="F29">
         <v>20</v>
       </c>
       <c r="G29">
         <f>D29*F29</f>
+        <v>80</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <f>L29*M29</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <f>D30*F30</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="6" t="s">
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <f>L30*M30</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" t="s">
         <v>17</v>
       </c>
-      <c r="G31">
-        <f>SUM(G35:G36)</f>
+      <c r="G32">
+        <f>SUM(G34:G41)</f>
+        <v>175.5</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32">
+        <f>SUM(O36:O37)</f>
         <v>73.5</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="17">
-      <c r="B32" t="s">
+    <row r="33" spans="2:15" ht="14.25">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>5</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" t="s">
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" t="s">
         <v>49</v>
       </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <f>D33*F33</f>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f>D34*F34</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" t="s">
+      <c r="J34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <f>L34*N34</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <f>E34*F34</f>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <f>E35*F35</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" t="s">
+      <c r="J35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <f>M35*N35</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>3500</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G35">
-        <f>C35*F35</f>
+      <c r="G36">
+        <f>C36*F36</f>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" t="s">
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36">
+        <v>3500</v>
+      </c>
+      <c r="N36">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O36">
+        <f>K36*N36</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" t="s">
         <v>48</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>10.5</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <f>E36*F36</f>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f>E37*F37</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" t="s">
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37">
+        <v>10.5</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <f>M37*N37</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>16</v>
       </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <f>D37*F37</f>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f>D38*F38</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" t="s">
+      <c r="J38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38">
+        <v>16</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <f>L38*N38</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <f>E38*F38</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" t="s">
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>E39*F39</f>
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <f>M39*N39</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>16</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <f>D39*F39</f>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f>D40*F40</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" t="s">
+      <c r="J40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40">
+        <v>16</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <f>L40*N40</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>5</v>
       </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <f>E40*F40</f>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f>E41*F41</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="6" t="s">
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <f>M41*N41</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" t="s">
         <v>17</v>
       </c>
-      <c r="G42">
-        <f>SUM(G44:G46)</f>
+      <c r="G43">
+        <f>SUM(G45:G48)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" t="s">
+      <c r="J43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43">
+        <f>SUM(M45:M47)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" t="s">
         <v>9</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
         <v>5</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" t="s">
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="F44">
-        <v>8</v>
-      </c>
-      <c r="G44">
-        <f>C44*F44</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
       <c r="C45">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F45">
         <v>8</v>
       </c>
       <c r="G45">
         <f>C45*F45</f>
+        <v>64</v>
+      </c>
+      <c r="J45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45">
+        <v>8</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45">
+        <f>K45*L45</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <f>C46*F46</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" t="s">
+      <c r="J46" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>8</v>
+      </c>
+      <c r="M46">
+        <f>K46*L46</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" t="s">
         <v>41</v>
       </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="F46">
-        <v>8</v>
-      </c>
-      <c r="G46">
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" t="s">
+      <c r="J47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47">
+        <v>8</v>
+      </c>
+      <c r="L47">
+        <v>8</v>
+      </c>
+      <c r="M47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>8</v>
-      </c>
-      <c r="G47">
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="6" t="s">
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>8</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" t="s">
         <v>17</v>
       </c>
-      <c r="G49">
-        <f>SUM(G51:G53)</f>
+      <c r="G50">
+        <f>SUM(G52:G54)</f>
         <v>230</v>
       </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" t="s">
+      <c r="J50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <f>SUM(M52:M54)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" t="s">
+      <c r="J51" t="s">
+        <v>9</v>
+      </c>
+      <c r="M51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" t="s">
         <v>27</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>150</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" t="s">
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" t="s">
+      <c r="J53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" t="s">
         <v>28</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="6" t="s">
+      <c r="J54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" t="s">
         <v>17</v>
       </c>
-      <c r="G55">
-        <f>SUM(G57:G59)</f>
+      <c r="G56">
+        <f>SUM(G58:G60)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" t="s">
+      <c r="J56" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56">
+        <f>SUM(O58:O60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" t="s">
         <v>29</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>22</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>23</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>24</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>25</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" t="s">
+      <c r="J57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" t="s">
         <v>21</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>40</v>
-      </c>
-      <c r="F57">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>40</v>
+      </c>
+      <c r="F58">
         <v>12</v>
       </c>
-      <c r="G57">
-        <f>C57*F57</f>
+      <c r="G58">
+        <f>C58*F58</f>
         <v>24</v>
       </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>12</v>
+      </c>
+      <c r="M58">
+        <f>K58*L58</f>
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J32:M32"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B32:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
